--- a/reopening_mi.xlsx
+++ b/reopening_mi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ei\mobility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ei\replicate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="219">
   <si>
     <t>title</t>
   </si>
@@ -633,9 +633,6 @@
     <t>only take-out</t>
   </si>
   <si>
-    <t>logistics</t>
-  </si>
-  <si>
     <t>warehousing</t>
   </si>
   <si>
@@ -676,6 +673,15 @@
   </si>
   <si>
     <t>outdoor parks</t>
+  </si>
+  <si>
+    <t>transportation</t>
+  </si>
+  <si>
+    <t>https://www.michigan.gov/documents/whitmer/MI_SAFE_START_PLAN_689875_7.pdf</t>
+  </si>
+  <si>
+    <t>healthcare</t>
   </si>
 </sst>
 </file>
@@ -1009,18 +1015,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1037,7 +1044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1051,9 +1058,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1065,12 +1072,12 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>206</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1082,10 +1089,10 @@
         <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -1099,9 +1106,9 @@
         <v>8121</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B6" s="1">
         <v>43990</v>
@@ -1113,12 +1120,12 @@
         <v>71399</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B7" s="1">
         <v>43990</v>
@@ -1130,12 +1137,12 @@
         <v>71211</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B8" s="1">
         <v>43990</v>
@@ -1147,12 +1154,12 @@
         <v>71219</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="1">
         <v>43990</v>
@@ -1164,10 +1171,10 @@
         <v>51912</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1184,7 +1191,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>197</v>
       </c>
@@ -1198,7 +1205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1212,7 +1219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1229,43 +1236,43 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
+        <v>218</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43958</v>
       </c>
       <c r="C14" t="s">
         <v>191</v>
       </c>
       <c r="D14">
-        <v>488</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
+        <v>216</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43958</v>
       </c>
       <c r="C15" t="s">
         <v>191</v>
       </c>
       <c r="D15">
-        <v>493</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -1273,16 +1280,16 @@
       <c r="C16" t="s">
         <v>191</v>
       </c>
-      <c r="D16" t="s">
-        <v>8</v>
+      <c r="D16">
+        <v>493</v>
       </c>
       <c r="E16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1290,27 +1297,30 @@
       <c r="C17" t="s">
         <v>191</v>
       </c>
-      <c r="D17">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
         <v>191</v>
       </c>
       <c r="D18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -1319,13 +1329,10 @@
         <v>191</v>
       </c>
       <c r="D19">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1336,29 +1343,32 @@
         <v>191</v>
       </c>
       <c r="D20">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
         <v>191</v>
       </c>
       <c r="D21">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -1367,15 +1377,12 @@
         <v>191</v>
       </c>
       <c r="D22">
-        <v>61</v>
-      </c>
-      <c r="E22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -1384,15 +1391,15 @@
         <v>191</v>
       </c>
       <c r="D23">
-        <v>71394</v>
-      </c>
-      <c r="E23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>209</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -1401,12 +1408,15 @@
         <v>191</v>
       </c>
       <c r="D24">
-        <v>51213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+        <v>71394</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -1415,12 +1425,12 @@
         <v>191</v>
       </c>
       <c r="D25">
-        <v>71395</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+        <v>51213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -1429,12 +1439,12 @@
         <v>191</v>
       </c>
       <c r="D26">
-        <v>711212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+        <v>71395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1443,12 +1453,26 @@
         <v>191</v>
       </c>
       <c r="D27">
+        <v>711212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28">
         <v>71399</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E23" r:id="rId1"/>
+    <hyperlink ref="E24" r:id="rId1"/>
     <hyperlink ref="E6:E9" r:id="rId2" display="https://www.wxyz.com/rebound/heres-what-can-open-and-when-in-michigan-amid-the-coronavirus-pandemic"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1459,19 +1483,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="2"/>
-    <col min="4" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -1491,7 +1515,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -1508,7 +1532,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -1525,7 +1549,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>80</v>
       </c>
@@ -1542,7 +1566,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1559,7 +1583,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1576,7 +1600,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -1593,7 +1617,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -1610,7 +1634,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -1627,7 +1651,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -1644,7 +1668,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -1661,7 +1685,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -1678,7 +1702,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -1695,7 +1719,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -1712,7 +1736,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -1729,7 +1753,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -1746,7 +1770,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -1763,7 +1787,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -1780,7 +1804,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -1797,7 +1821,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -1814,7 +1838,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -1831,7 +1855,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -1848,7 +1872,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -1865,7 +1889,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>143</v>
       </c>
@@ -1882,7 +1906,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>144</v>
       </c>
@@ -1899,7 +1923,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>145</v>
       </c>
@@ -1916,7 +1940,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -1933,7 +1957,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -1950,7 +1974,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -1967,7 +1991,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -1984,7 +2008,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -2001,7 +2025,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -2018,7 +2042,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -2035,7 +2059,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -2052,7 +2076,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -2069,7 +2093,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>121</v>
       </c>
@@ -2086,7 +2110,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>122</v>
       </c>
@@ -2103,7 +2127,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>123</v>
       </c>
@@ -2120,7 +2144,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>124</v>
       </c>
@@ -2137,7 +2161,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>125</v>
       </c>
@@ -2154,7 +2178,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>109</v>
       </c>
@@ -2171,7 +2195,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>110</v>
       </c>
@@ -2188,7 +2212,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>111</v>
       </c>
@@ -2205,7 +2229,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -2222,7 +2246,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -2239,7 +2263,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -2256,7 +2280,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -2273,7 +2297,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>116</v>
       </c>
@@ -2290,7 +2314,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>117</v>
       </c>
@@ -2307,7 +2331,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -2324,7 +2348,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>119</v>
       </c>
@@ -2341,7 +2365,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>120</v>
       </c>
@@ -2358,7 +2382,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>127</v>
       </c>
@@ -2378,7 +2402,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>126</v>
       </c>
@@ -2398,7 +2422,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -2418,7 +2442,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>129</v>
       </c>
@@ -2438,7 +2462,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>130</v>
       </c>
@@ -2458,7 +2482,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>131</v>
       </c>
@@ -2478,7 +2502,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>132</v>
       </c>
@@ -2498,7 +2522,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>133</v>
       </c>
@@ -2518,7 +2542,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -2538,7 +2562,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>135</v>
       </c>
@@ -2558,7 +2582,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>136</v>
       </c>
@@ -2578,7 +2602,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>137</v>
       </c>
@@ -2598,7 +2622,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>138</v>
       </c>
@@ -2618,7 +2642,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -2638,7 +2662,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -2658,7 +2682,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>141</v>
       </c>
@@ -2678,7 +2702,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>142</v>
       </c>
@@ -2698,7 +2722,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -2718,7 +2742,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>147</v>
       </c>
@@ -2738,7 +2762,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>148</v>
       </c>
@@ -2758,7 +2782,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>149</v>
       </c>
@@ -2778,7 +2802,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>150</v>
       </c>
@@ -2798,7 +2822,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>151</v>
       </c>
@@ -2818,7 +2842,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>152</v>
       </c>
@@ -2838,7 +2862,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -2858,7 +2882,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>154</v>
       </c>
@@ -2878,7 +2902,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>155</v>
       </c>
@@ -2898,7 +2922,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>156</v>
       </c>
@@ -2918,7 +2942,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>157</v>
       </c>
@@ -2938,7 +2962,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>158</v>
       </c>
@@ -2958,7 +2982,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>159</v>
       </c>
@@ -2978,7 +3002,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>160</v>
       </c>
